--- a/analise_curva_abc/analises_prontas/ordem/normal/excluir.xlsx
+++ b/analise_curva_abc/analises_prontas/ordem/normal/excluir.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estoque\Documents\estoque.renan\projetos\projeto_curva_abc\analise_curva_abc\prontas\ordem\normal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estoque\Documents\estoque.renan\projetos\projeto_curva_abc\analise_curva_abc\analises_prontas\ordem\normal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC5B258-CB1B-4CDC-AD26-B7E28724A5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F8D423-EBE1-47D9-9041-54FDBA58F1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1687,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="G118" sqref="G118"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
